--- a/Ch_7_Sentence_Modes/output/Ch_7_Mode_Utterance_Tables_Graphs.xlsx
+++ b/Ch_7_Sentence_Modes/output/Ch_7_Mode_Utterance_Tables_Graphs.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E74A14-53D4-4A48-81C5-E0C1BA9F059D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3D1AB8-55D7-4195-A07B-8317E59F4762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-14980" yWindow="-21710" windowWidth="38620" windowHeight="21820" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphs" sheetId="7" r:id="rId1"/>
-    <sheet name="Intercepts" sheetId="1" r:id="rId2"/>
-    <sheet name="Pairwise Comparisons" sheetId="8" r:id="rId3"/>
-    <sheet name="Model Effect Size" sheetId="9" r:id="rId4"/>
+    <sheet name="Intercepts" sheetId="1" r:id="rId1"/>
+    <sheet name="Pairwise Comparisons" sheetId="8" r:id="rId2"/>
+    <sheet name="Model Effect Size" sheetId="9" r:id="rId3"/>
+    <sheet name="Graphs" sheetId="7" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -27,8 +27,8 @@
     <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Intercepts!$A$1:$H$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Pairwise Comparisons'!$A$1:$I$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Intercepts!$A$2:$K$10</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Pairwise Comparisons'!$A$1:$J$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,99 +50,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Predictors</t>
-  </si>
-  <si>
-    <t>p val.</t>
   </si>
   <si>
     <t xml:space="preserve">SE </t>
   </si>
   <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">m </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">c </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>β</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <t>std.error</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>2.5% CI</t>
-  </si>
-  <si>
-    <t>97.5% CI</t>
-  </si>
-  <si>
-    <t>2.5%    CI</t>
-  </si>
-  <si>
     <t>CI Delta</t>
-  </si>
-  <si>
-    <t>df</t>
   </si>
   <si>
     <t>Mean Slope</t>
@@ -172,19 +88,28 @@
     <t>F0 Error Bar Values</t>
   </si>
   <si>
-    <t>Slope Error Bar Values</t>
-  </si>
-  <si>
-    <t>Parameter</t>
-  </si>
-  <si>
     <t>Model Effect Size</t>
   </si>
   <si>
     <t>Pairwise Comparisons</t>
   </si>
   <si>
-    <t>2.5%   CI</t>
+    <t>std error</t>
+  </si>
+  <si>
+    <r>
+      <t>β</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
     <r>
@@ -196,8 +121,8 @@
         <vertAlign val="subscript"/>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -206,20 +131,86 @@
         <b/>
         <sz val="9"/>
         <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
   </si>
   <si>
-    <t>std error</t>
+    <t>Mean F0</t>
   </si>
   <si>
-    <t>t value</t>
+    <t>Utterance Parameter</t>
   </si>
   <si>
-    <t>p. (adjusted)</t>
+    <t>Slope</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+  </si>
+  <si>
+    <t>signif.      adj.</t>
+  </si>
+  <si>
+    <t>2.5%          CI</t>
+  </si>
+  <si>
+    <t>97.5%       CI</t>
+  </si>
+  <si>
+    <t>2.5%        CI</t>
+  </si>
+  <si>
+    <t>p.val. adj. (bf=7)</t>
+  </si>
+  <si>
+    <t>97.5%         CI</t>
   </si>
 </sst>
 </file>
@@ -227,11 +218,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,66 +231,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,49 +324,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor theme="0" tint="-0.34998626667073579"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.34998626667073579"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="33">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -373,32 +349,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -447,162 +397,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -645,86 +445,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -746,286 +466,387 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="2" tint="-9.9917600024414813E-2"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9887081514938816E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9887081514938816E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9887081514938816E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9917600024414813E-2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="2" tint="-9.9887081514938816E-2"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="47">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -1054,186 +875,6 @@
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -1410,7 +1051,33 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1445,22 +1112,95 @@
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
-        <color rgb="FF00B050"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF1B9E77"/>
       <color rgb="FFE7298A"/>
-      <color rgb="FF1B9E77"/>
       <color rgb="FFD95F02"/>
       <color rgb="FF7570B3"/>
       <color rgb="FFE66101"/>
@@ -1503,15 +1243,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
+              <a:rPr lang="en-US" b="0"/>
               <a:t>Mean Utterance F0</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40788975197601524"/>
+          <c:y val="2.7887571365832236E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,7 +1281,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intercepts!$A$1</c:f>
+              <c:f>Intercepts!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1565,7 +1313,7 @@
             <c:spPr>
               <a:pattFill prst="pct20">
                 <a:fgClr>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="7570B3"/>
                 </a:fgClr>
                 <a:bgClr>
                   <a:srgbClr val="7570B3"/>
@@ -1590,7 +1338,7 @@
             <c:spPr>
               <a:pattFill prst="pct20">
                 <a:fgClr>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="D95F02"/>
                 </a:fgClr>
                 <a:bgClr>
                   <a:srgbClr val="D95F02"/>
@@ -1604,7 +1352,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-BEFD-4F36-AE8E-F58994163038}"/>
+                <c16:uniqueId val="{00000003-1CC5-4E3E-A044-E83F13840CD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1615,7 +1363,7 @@
             <c:spPr>
               <a:pattFill prst="pct20">
                 <a:fgClr>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="1B9E77"/>
                 </a:fgClr>
                 <a:bgClr>
                   <a:srgbClr val="1B9E77"/>
@@ -1640,7 +1388,7 @@
             <c:spPr>
               <a:pattFill prst="pct20">
                 <a:fgClr>
-                  <a:schemeClr val="tx1"/>
+                  <a:srgbClr val="E7298A"/>
                 </a:fgClr>
                 <a:bgClr>
                   <a:srgbClr val="E7298A"/>
@@ -1654,7 +1402,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-BEFD-4F36-AE8E-F58994163038}"/>
+                <c16:uniqueId val="{00000007-1CC5-4E3E-A044-E83F13840CD9}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1664,20 +1412,29 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$10:$K$13</c:f>
+                <c:f>Intercepts!$M$4:$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>1.5379999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.9210000000000065</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>2.1090000000000004</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>2.0800000000000125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.1159999999999999</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>2.5670000000000073</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>1.9910000000000001</c:v>
                   </c:pt>
                 </c:numCache>
@@ -1685,27 +1442,36 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$10:$K$13</c:f>
+                <c:f>Intercepts!$M$4:$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>1.5379999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.9210000000000065</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>2.1090000000000004</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>2.0800000000000125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.1159999999999999</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>2.5670000000000073</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>1.9910000000000001</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:minus>
             <c:spPr>
-              <a:ln w="12700">
+              <a:ln w="19050">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -1714,7 +1480,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>Intercepts!$A$3:$A$6</c:f>
+              <c:f>(Intercepts!$A$3,Intercepts!$A$5,Intercepts!$A$7,Intercepts!$A$9)</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1734,7 +1500,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Intercepts!$B$3:$B$6</c:f>
+              <c:f>(Intercepts!$C$3,Intercepts!$C$5,Intercepts!$C$7,Intercepts!$C$9)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1767,7 +1533,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="100"/>
         <c:axId val="1686998496"/>
         <c:axId val="1629394096"/>
       </c:barChart>
@@ -1797,7 +1563,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1834,28 +1600,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0"/>
-                  <a:t>mean </a:t>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>mean f0 (ST re 1 Hz)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0" i="1"/>
-                  <a:t>f</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0" baseline="-25000"/>
-                  <a:t>0</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
-                  <a:t> (ST re 1 Hz)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1100" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.3267920414281819E-2"/>
+              <c:y val="0.25706814522031912"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1894,17 +1655,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
+        <c:showKeys val="0"/>
       </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1927,6 +1678,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1961,20 +1714,23 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1400"/>
-              <a:t>Mean Utterance</a:t>
+              <a:rPr lang="en-US" b="0"/>
+              <a:t>Mean Utterance Slope (ST/sec)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" baseline="0"/>
-              <a:t> Slope (ST/sec)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.3204451712546561"/>
+          <c:y val="3.2535499926804275E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1995,11 +1751,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intercepts!$A$8</c:f>
+              <c:f>Intercepts!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mean Slope</c:v>
+                  <c:v>Slope</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2118,20 +1874,29 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$10:$K$13</c:f>
+                <c:f>Intercepts!$M$4:$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>1.5379999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.9210000000000065</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>2.1090000000000004</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>2.0800000000000125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.1159999999999999</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>2.5670000000000073</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>1.9910000000000001</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2139,20 +1904,29 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$10:$K$13</c:f>
+                <c:f>Intercepts!$M$4:$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
+                  <c:ptCount val="7"/>
                   <c:pt idx="0">
                     <c:v>1.5379999999999998</c:v>
                   </c:pt>
                   <c:pt idx="1">
+                    <c:v>1.9210000000000065</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
                     <c:v>2.1090000000000004</c:v>
                   </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="3">
+                    <c:v>2.0800000000000125</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>1.1159999999999999</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="5">
+                    <c:v>2.5670000000000073</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
                     <c:v>1.9910000000000001</c:v>
                   </c:pt>
                 </c:numCache>
@@ -2170,28 +1944,17 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:strRef>
-              <c:f>Intercepts!$A$3:$A$6</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>(Intercepts!$A$4,Intercepts!$A$6,Intercepts!$A$8,Intercepts!$A$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>MDC</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MWH</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MYN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Intercepts!$B$10:$B$13</c:f>
+              <c:f>(Intercepts!$C$4,Intercepts!$C$6,Intercepts!$C$8,Intercepts!$C$10)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2243,7 +2006,7 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -2256,7 +2019,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100"/>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2295,15 +2058,23 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100" b="0"/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1100" b="0"/>
+                  <a:rPr lang="en-US" b="0"/>
                   <a:t>mean slope (ST/sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.8660434858356794E-2"/>
+              <c:y val="0.25025576880132533"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2342,17 +2113,7 @@
         <c:showHorzBorder val="1"/>
         <c:showVertBorder val="1"/>
         <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="1100"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
+        <c:showKeys val="0"/>
       </c:dTable>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -2375,6 +2136,8 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -2409,17 +2172,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400"/>
+              <a:defRPr sz="1260" b="0"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IE" sz="1400"/>
-              <a:t>Mean Utterance</a:t>
+              <a:rPr lang="en-IE" sz="1260" b="0"/>
+              <a:t>Mean Utterance F0 and Slope per Mode</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-IE" sz="1400" baseline="0"/>
-              <a:t> F0 and Slope per Mode</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-IE" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2454,9 +2212,7 @@
           </c:tx>
           <c:spPr>
             <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="5E3C99"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
           <c:marker>
@@ -2480,7 +2236,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$10</c:f>
+                <c:f>Intercepts!$M$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2492,7 +2248,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$10</c:f>
+                <c:f>Intercepts!$M$4</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2517,7 +2273,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$3</c:f>
+                <c:f>Intercepts!$M$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2529,7 +2285,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$3</c:f>
+                <c:f>Intercepts!$M$3</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2549,7 +2305,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Intercepts!$B$10</c:f>
+              <c:f>Intercepts!$C$4</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2561,7 +2317,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Intercepts!$B$3</c:f>
+              <c:f>Intercepts!$C$3</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2583,7 +2339,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intercepts!$A$4</c:f>
+              <c:f>Intercepts!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2592,6 +2348,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="diamond"/>
             <c:size val="14"/>
@@ -2613,7 +2374,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$11</c:f>
+                <c:f>Intercepts!$M$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2625,7 +2386,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$11</c:f>
+                <c:f>Intercepts!$M$6</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2650,7 +2411,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$4</c:f>
+                <c:f>Intercepts!$M$5</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2662,7 +2423,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$4</c:f>
+                <c:f>Intercepts!$M$5</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2682,7 +2443,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Intercepts!$B$11</c:f>
+              <c:f>Intercepts!$C$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2694,7 +2455,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Intercepts!$B$4</c:f>
+              <c:f>Intercepts!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2716,7 +2477,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intercepts!$A$5</c:f>
+              <c:f>Intercepts!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2725,6 +2486,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="square"/>
             <c:size val="10"/>
@@ -2746,7 +2512,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$12</c:f>
+                <c:f>Intercepts!$M$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2758,7 +2524,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$12</c:f>
+                <c:f>Intercepts!$M$8</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2783,7 +2549,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$5</c:f>
+                <c:f>Intercepts!$M$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2795,7 +2561,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$5</c:f>
+                <c:f>Intercepts!$M$7</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2815,7 +2581,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Intercepts!$B$12</c:f>
+              <c:f>Intercepts!$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2827,7 +2593,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Intercepts!$B$5</c:f>
+              <c:f>Intercepts!$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2849,7 +2615,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Intercepts!$A$6</c:f>
+              <c:f>Intercepts!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2858,6 +2624,11 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
             <c:size val="10"/>
@@ -2882,7 +2653,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$13</c:f>
+                <c:f>Intercepts!$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2894,7 +2665,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$13</c:f>
+                <c:f>Intercepts!$M$10</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2919,7 +2690,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Intercepts!$K$6</c:f>
+                <c:f>Intercepts!$M$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2931,7 +2702,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Intercepts!$K$6</c:f>
+                <c:f>Intercepts!$M$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="1"/>
@@ -2951,7 +2722,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Intercepts!$B$13</c:f>
+              <c:f>Intercepts!$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2963,7 +2734,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Intercepts!$B$6</c:f>
+              <c:f>Intercepts!$C$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
@@ -3016,10 +2787,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="0"/>
                   <a:t>Slope (ST/sec</a:t>
                 </a:r>
               </a:p>
@@ -3054,6 +2825,7 @@
         <c:crossAx val="765174752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="765174752"/>
@@ -3061,7 +2833,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -3080,10 +2852,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="0"/>
                   <a:t> F0 (ST re 1 Hz)</a:t>
                 </a:r>
               </a:p>
@@ -3116,7 +2888,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="950869344"/>
-        <c:crosses val="max"/>
+        <c:crossesAt val="-8"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3133,9 +2905,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.5578617104786213E-2"/>
-          <c:y val="0.10508498873013113"/>
-          <c:w val="0.21011080270702553"/>
+          <c:x val="0.20725382343826901"/>
+          <c:y val="0.14184186336356303"/>
+          <c:w val="0.14644748354873405"/>
           <c:h val="0.1919023462648887"/>
         </c:manualLayout>
       </c:layout>
@@ -3167,7 +2939,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1200"/>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3184,16 +2959,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>231587</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>83627</xdr:colOff>
+      <xdr:colOff>114681</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>72737</xdr:rowOff>
+      <xdr:rowOff>117694</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3222,16 +2997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>224117</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>7471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>82357</xdr:colOff>
+      <xdr:colOff>107211</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>75277</xdr:rowOff>
+      <xdr:rowOff>125165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3266,10 +3041,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>186140</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>108733</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114682</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3308,8 +3083,17 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="1">
+          <cell r="D1" t="str">
+            <v>2.5% CI</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>t.value</v>
+          </cell>
           <cell r="G1" t="str">
             <v>df</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>p.value</v>
           </cell>
         </row>
         <row r="2">
@@ -3334,8 +3118,14 @@
           <cell r="G2">
             <v>11.56</v>
           </cell>
+          <cell r="H2">
+            <v>3.5730816871530797E-17</v>
+          </cell>
           <cell r="I2">
-            <v>0</v>
+            <v>7.1461633743061705E-17</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="3">
@@ -3360,8 +3150,14 @@
           <cell r="G3">
             <v>10.1</v>
           </cell>
+          <cell r="H3">
+            <v>4.5299163313851298E-16</v>
+          </cell>
           <cell r="I3">
-            <v>0</v>
+            <v>9.0598326627702695E-16</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="4">
@@ -3386,8 +3182,14 @@
           <cell r="G4">
             <v>11.24</v>
           </cell>
+          <cell r="H4">
+            <v>3.90950500814482E-17</v>
+          </cell>
           <cell r="I4">
-            <v>0</v>
+            <v>7.8190100162896401E-17</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="5">
@@ -3412,8 +3214,14 @@
           <cell r="G5">
             <v>12.5</v>
           </cell>
+          <cell r="H5">
+            <v>1.40004586204442E-17</v>
+          </cell>
           <cell r="I5">
-            <v>0</v>
+            <v>2.8000917240888498E-17</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
       </sheetData>
@@ -3426,143 +3234,121 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_utt_mean_f0_b1"/>
+      <sheetName val="LME_utt_slope_b0"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
+          <cell r="B2">
+            <v>-1.2090000000000001</v>
+          </cell>
           <cell r="C2">
-            <v>0.47099999999999997</v>
+            <v>0.78500000000000003</v>
           </cell>
           <cell r="D2">
-            <v>0.311</v>
+            <v>-2.7469999999999999</v>
           </cell>
           <cell r="E2">
-            <v>-0.13700000000000001</v>
+            <v>0.33</v>
           </cell>
           <cell r="F2">
-            <v>1.08</v>
+            <v>-1.54</v>
           </cell>
           <cell r="G2">
-            <v>1.518</v>
+            <v>9.9</v>
           </cell>
           <cell r="H2">
-            <v>10.07</v>
+            <v>0.15486654925417101</v>
           </cell>
           <cell r="I2">
-            <v>0.1598</v>
+            <v>0.30973309850834202</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="B3">
+            <v>-3.629</v>
+          </cell>
           <cell r="C3">
-            <v>0.76100000000000001</v>
+            <v>1.0760000000000001</v>
           </cell>
           <cell r="D3">
-            <v>0.249</v>
+            <v>-5.7380000000000004</v>
           </cell>
           <cell r="E3">
-            <v>0.27300000000000002</v>
+            <v>-1.52</v>
           </cell>
           <cell r="F3">
-            <v>1.2490000000000001</v>
+            <v>-3.3730000000000002</v>
           </cell>
           <cell r="G3">
-            <v>3.0590000000000002</v>
+            <v>7.79</v>
           </cell>
           <cell r="H3">
-            <v>10.07</v>
+            <v>1.01433931374136E-2</v>
           </cell>
           <cell r="I3">
-            <v>1.2E-2</v>
+            <v>2.02867862748272E-2</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="B4">
+            <v>2.4369999999999998</v>
+          </cell>
           <cell r="C4">
-            <v>2.2869999999999999</v>
+            <v>0.56899999999999995</v>
           </cell>
           <cell r="D4">
-            <v>0.439</v>
+            <v>1.321</v>
           </cell>
           <cell r="E4">
-            <v>1.4279999999999999</v>
+            <v>3.552</v>
           </cell>
           <cell r="F4">
-            <v>3.1469999999999998</v>
+            <v>4.282</v>
           </cell>
           <cell r="G4">
-            <v>5.2149999999999999</v>
+            <v>6.08</v>
           </cell>
           <cell r="H4">
-            <v>10.06</v>
+            <v>5.0431041747247499E-3</v>
           </cell>
           <cell r="I4">
-            <v>3.8467999999999998E-4</v>
+            <v>1.00862083494495E-2</v>
+          </cell>
+          <cell r="J4" t="str">
+            <v>p&lt;0.05</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="B5">
+            <v>5.3959999999999999</v>
+          </cell>
           <cell r="C5">
-            <v>0.28999999999999998</v>
+            <v>1.016</v>
           </cell>
           <cell r="D5">
-            <v>0.253</v>
+            <v>3.4049999999999998</v>
           </cell>
           <cell r="E5">
-            <v>-0.20699999999999999</v>
+            <v>7.3869999999999996</v>
           </cell>
           <cell r="F5">
-            <v>0.78600000000000003</v>
+            <v>5.3129999999999997</v>
           </cell>
           <cell r="G5">
-            <v>1.1439999999999999</v>
+            <v>11.1</v>
           </cell>
           <cell r="H5">
-            <v>9.98</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>1.8160000000000001</v>
-          </cell>
-          <cell r="D6">
-            <v>0.63100000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>0.57799999999999996</v>
-          </cell>
-          <cell r="F6">
-            <v>3.0529999999999999</v>
-          </cell>
-          <cell r="G6">
-            <v>2.875</v>
-          </cell>
-          <cell r="H6">
-            <v>10.039999999999999</v>
-          </cell>
-          <cell r="I6">
-            <v>1.6500000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>1.526</v>
-          </cell>
-          <cell r="D7">
-            <v>0.59</v>
-          </cell>
-          <cell r="E7">
-            <v>0.36899999999999999</v>
-          </cell>
-          <cell r="F7">
-            <v>2.6829999999999998</v>
-          </cell>
-          <cell r="G7">
-            <v>2.5840000000000001</v>
-          </cell>
-          <cell r="H7">
-            <v>10.06</v>
-          </cell>
-          <cell r="I7">
-            <v>2.7099999999999999E-2</v>
+            <v>2.3996259915199099E-4</v>
+          </cell>
+          <cell r="I5">
+            <v>4.7992519830398301E-4</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
       </sheetData>
@@ -3575,18 +3361,193 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_utt_mean_f0_r2"/>
+      <sheetName val="LME_utt_mean_f0_b1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="F1" t="str">
+            <v>97.5% CI</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>t.value</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>df</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>p.value</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>p.val. adj. (bf=7)</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>signif. (adj.)</v>
+          </cell>
+        </row>
         <row r="2">
-          <cell r="B2">
-            <v>0.942615107372338</v>
+          <cell r="C2">
+            <v>0.47099999999999997</v>
+          </cell>
+          <cell r="D2">
+            <v>0.311</v>
+          </cell>
+          <cell r="E2">
+            <v>-0.13700000000000001</v>
+          </cell>
+          <cell r="F2">
+            <v>1.08</v>
+          </cell>
+          <cell r="G2">
+            <v>1.518</v>
+          </cell>
+          <cell r="H2">
+            <v>10.07</v>
+          </cell>
+          <cell r="I2">
+            <v>0.15980574802695599</v>
+          </cell>
+          <cell r="J2">
+            <v>0.3196</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>0.53025478832227002</v>
+          <cell r="C3">
+            <v>0.76100000000000001</v>
+          </cell>
+          <cell r="D3">
+            <v>0.249</v>
+          </cell>
+          <cell r="E3">
+            <v>0.27300000000000002</v>
+          </cell>
+          <cell r="F3">
+            <v>1.2490000000000001</v>
+          </cell>
+          <cell r="G3">
+            <v>3.0590000000000002</v>
+          </cell>
+          <cell r="H3">
+            <v>10.07</v>
+          </cell>
+          <cell r="I3">
+            <v>1.19832940301635E-2</v>
+          </cell>
+          <cell r="J3">
+            <v>2.4E-2</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>p&lt;0.05</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>2.2869999999999999</v>
+          </cell>
+          <cell r="D4">
+            <v>0.439</v>
+          </cell>
+          <cell r="E4">
+            <v>1.4279999999999999</v>
+          </cell>
+          <cell r="F4">
+            <v>3.1469999999999998</v>
+          </cell>
+          <cell r="G4">
+            <v>5.2149999999999999</v>
+          </cell>
+          <cell r="H4">
+            <v>10.06</v>
+          </cell>
+          <cell r="I4">
+            <v>3.8467577530232501E-4</v>
+          </cell>
+          <cell r="J4">
+            <v>8.0000000000000004E-4</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>p&lt;0.001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="D5">
+            <v>0.253</v>
+          </cell>
+          <cell r="E5">
+            <v>-0.20699999999999999</v>
+          </cell>
+          <cell r="F5">
+            <v>0.78600000000000003</v>
+          </cell>
+          <cell r="G5">
+            <v>1.1439999999999999</v>
+          </cell>
+          <cell r="H5">
+            <v>9.98</v>
+          </cell>
+          <cell r="I5">
+            <v>0.27950992185204199</v>
+          </cell>
+          <cell r="J5">
+            <v>0.55900000000000005</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1.8160000000000001</v>
+          </cell>
+          <cell r="D6">
+            <v>0.63100000000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>0.57799999999999996</v>
+          </cell>
+          <cell r="F6">
+            <v>3.0529999999999999</v>
+          </cell>
+          <cell r="G6">
+            <v>2.875</v>
+          </cell>
+          <cell r="H6">
+            <v>10.039999999999999</v>
+          </cell>
+          <cell r="I6">
+            <v>1.6450500219151599E-2</v>
+          </cell>
+          <cell r="J6">
+            <v>3.2899999999999999E-2</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>p&lt;0.05</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>1.526</v>
+          </cell>
+          <cell r="D7">
+            <v>0.59</v>
+          </cell>
+          <cell r="E7">
+            <v>0.36899999999999999</v>
+          </cell>
+          <cell r="F7">
+            <v>2.6829999999999998</v>
+          </cell>
+          <cell r="G7">
+            <v>2.5840000000000001</v>
+          </cell>
+          <cell r="H7">
+            <v>10.06</v>
+          </cell>
+          <cell r="I7">
+            <v>2.7108965813267601E-2</v>
+          </cell>
+          <cell r="J7">
+            <v>5.4199999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -3599,100 +3560,179 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_utt_slope_b0"/>
+      <sheetName val="LME_utt_slope_b1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="B2">
-            <v>-1.2090000000000001</v>
-          </cell>
           <cell r="C2">
-            <v>0.78500000000000003</v>
+            <v>-2.42</v>
           </cell>
           <cell r="D2">
-            <v>-2.7469999999999999</v>
+            <v>1.2230000000000001</v>
           </cell>
           <cell r="E2">
-            <v>0.33</v>
+            <v>-4.8170000000000002</v>
           </cell>
           <cell r="F2">
-            <v>-1.54</v>
+            <v>-2.4E-2</v>
           </cell>
           <cell r="G2">
-            <v>9.9</v>
+            <v>-1.9790000000000001</v>
+          </cell>
+          <cell r="H2">
+            <v>10</v>
           </cell>
           <cell r="I2">
-            <v>0.99990000000000001</v>
+            <v>7.5942388688881396E-2</v>
+          </cell>
+          <cell r="J2">
+            <v>0.15188477737776199</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="B3">
-            <v>-3.629</v>
-          </cell>
           <cell r="C3">
-            <v>1.0760000000000001</v>
+            <v>3.6459999999999999</v>
           </cell>
           <cell r="D3">
-            <v>-5.7380000000000004</v>
+            <v>0.88700000000000001</v>
           </cell>
           <cell r="E3">
-            <v>-1.52</v>
+            <v>1.907</v>
           </cell>
           <cell r="F3">
-            <v>-3.3730000000000002</v>
+            <v>5.3849999999999998</v>
           </cell>
           <cell r="G3">
-            <v>7.79</v>
+            <v>4.109</v>
+          </cell>
+          <cell r="H3">
+            <v>9.99</v>
           </cell>
           <cell r="I3">
-            <v>0.1217</v>
+            <v>2.1194854883131399E-3</v>
+          </cell>
+          <cell r="J3">
+            <v>4.2389709766262901E-3</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>p&lt;0.01</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="B4">
-            <v>2.4369999999999998</v>
-          </cell>
           <cell r="C4">
-            <v>0.56899999999999995</v>
+            <v>6.6050000000000004</v>
           </cell>
           <cell r="D4">
-            <v>1.321</v>
+            <v>1.177</v>
           </cell>
           <cell r="E4">
-            <v>3.552</v>
+            <v>4.298</v>
           </cell>
           <cell r="F4">
-            <v>4.282</v>
+            <v>8.9120000000000008</v>
           </cell>
           <cell r="G4">
-            <v>6.08</v>
+            <v>5.6109999999999998</v>
+          </cell>
+          <cell r="H4">
+            <v>10.09</v>
           </cell>
           <cell r="I4">
-            <v>6.0499999999999998E-2</v>
+            <v>2.17158268650174E-4</v>
+          </cell>
+          <cell r="J4">
+            <v>4.3431653730034801E-4</v>
+          </cell>
+          <cell r="K4" t="str">
+            <v>p&lt;0.001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="B5">
-            <v>5.3959999999999999</v>
-          </cell>
           <cell r="C5">
-            <v>1.016</v>
+            <v>6.0659999999999998</v>
           </cell>
           <cell r="D5">
-            <v>3.4049999999999998</v>
+            <v>1.4650000000000001</v>
           </cell>
           <cell r="E5">
-            <v>7.3869999999999996</v>
+            <v>3.1949999999999998</v>
           </cell>
           <cell r="F5">
-            <v>5.3129999999999997</v>
+            <v>8.9369999999999994</v>
           </cell>
           <cell r="G5">
-            <v>11.1</v>
+            <v>4.141</v>
+          </cell>
+          <cell r="H5">
+            <v>10</v>
           </cell>
           <cell r="I5">
-            <v>2.8999999999999998E-3</v>
+            <v>2.00943767868017E-3</v>
+          </cell>
+          <cell r="J5">
+            <v>4.0188753573603504E-3</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>p&lt;0.01</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>9.0250000000000004</v>
+          </cell>
+          <cell r="D6">
+            <v>1.7030000000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>5.6870000000000003</v>
+          </cell>
+          <cell r="F6">
+            <v>12.363</v>
+          </cell>
+          <cell r="G6">
+            <v>5.3</v>
+          </cell>
+          <cell r="H6">
+            <v>10.029999999999999</v>
+          </cell>
+          <cell r="I6">
+            <v>3.4445530147905398E-4</v>
+          </cell>
+          <cell r="J6">
+            <v>6.8891060295810796E-4</v>
+          </cell>
+          <cell r="K6" t="str">
+            <v>p&lt;0.001</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>2.9590000000000001</v>
+          </cell>
+          <cell r="D7">
+            <v>0.76500000000000001</v>
+          </cell>
+          <cell r="E7">
+            <v>1.4590000000000001</v>
+          </cell>
+          <cell r="F7">
+            <v>4.4589999999999996</v>
+          </cell>
+          <cell r="G7">
+            <v>3.867</v>
+          </cell>
+          <cell r="H7">
+            <v>10</v>
+          </cell>
+          <cell r="I7">
+            <v>3.12728623193868E-3</v>
+          </cell>
+          <cell r="J7">
+            <v>6.25457246387736E-3</v>
+          </cell>
+          <cell r="K7" t="str">
+            <v>p&lt;0.01</v>
           </cell>
         </row>
       </sheetData>
@@ -3705,146 +3745,18 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="LME_utt_slope_b1"/>
+      <sheetName val="LME_utt_mean_f0_r2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="2">
-          <cell r="C2">
-            <v>-2.42</v>
-          </cell>
-          <cell r="D2">
-            <v>1.2230000000000001</v>
-          </cell>
-          <cell r="E2">
-            <v>-4.8170000000000002</v>
-          </cell>
-          <cell r="F2">
-            <v>-2.4E-2</v>
-          </cell>
-          <cell r="G2">
-            <v>-1.9790000000000001</v>
-          </cell>
-          <cell r="H2">
-            <v>10</v>
-          </cell>
-          <cell r="I2">
-            <v>7.5899999999999995E-2</v>
+          <cell r="B2">
+            <v>0.942615107372338</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3">
-            <v>3.6459999999999999</v>
-          </cell>
-          <cell r="D3">
-            <v>0.88700000000000001</v>
-          </cell>
-          <cell r="E3">
-            <v>1.907</v>
-          </cell>
-          <cell r="F3">
-            <v>5.3849999999999998</v>
-          </cell>
-          <cell r="G3">
-            <v>4.109</v>
-          </cell>
-          <cell r="H3">
-            <v>9.99</v>
-          </cell>
-          <cell r="I3">
-            <v>2.0999999999999999E-3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>6.6050000000000004</v>
-          </cell>
-          <cell r="D4">
-            <v>1.177</v>
-          </cell>
-          <cell r="E4">
-            <v>4.298</v>
-          </cell>
-          <cell r="F4">
-            <v>8.9120000000000008</v>
-          </cell>
-          <cell r="G4">
-            <v>5.6109999999999998</v>
-          </cell>
-          <cell r="H4">
-            <v>10.09</v>
-          </cell>
-          <cell r="I4">
-            <v>2.1715999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>6.0659999999999998</v>
-          </cell>
-          <cell r="D5">
-            <v>1.4650000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>3.1949999999999998</v>
-          </cell>
-          <cell r="F5">
-            <v>8.9369999999999994</v>
-          </cell>
-          <cell r="G5">
-            <v>4.141</v>
-          </cell>
-          <cell r="H5">
-            <v>10</v>
-          </cell>
-          <cell r="I5">
-            <v>2E-3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>9.0250000000000004</v>
-          </cell>
-          <cell r="D6">
-            <v>1.7030000000000001</v>
-          </cell>
-          <cell r="E6">
-            <v>5.6870000000000003</v>
-          </cell>
-          <cell r="F6">
-            <v>12.363</v>
-          </cell>
-          <cell r="G6">
-            <v>5.3</v>
-          </cell>
-          <cell r="H6">
-            <v>10.029999999999999</v>
-          </cell>
-          <cell r="I6">
-            <v>3.4445999999999999E-4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>2.9590000000000001</v>
-          </cell>
-          <cell r="D7">
-            <v>0.76500000000000001</v>
-          </cell>
-          <cell r="E7">
-            <v>1.4590000000000001</v>
-          </cell>
-          <cell r="F7">
-            <v>4.4589999999999996</v>
-          </cell>
-          <cell r="G7">
-            <v>3.867</v>
-          </cell>
-          <cell r="H7">
-            <v>10</v>
-          </cell>
-          <cell r="I7">
-            <v>3.0999999999999999E-3</v>
+          <cell r="B3">
+            <v>0.53025478832227002</v>
           </cell>
         </row>
       </sheetData>
@@ -4173,1030 +4085,1278 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
-  <dimension ref="J38:M38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="8.21875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="10" customWidth="1"/>
+    <col min="8" max="8" width="8" style="10" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="10" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" style="10" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="15"/>
+    <col min="18" max="18" width="10" style="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="38" spans="10:13" x14ac:dyDescent="0.3">
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="46"/>
+    </row>
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="36" t="str">
+        <f>[1]LME_utt_mean_f0_b0!F1</f>
+        <v>t.value</v>
+      </c>
+      <c r="H2" s="36" t="str">
+        <f>[1]LME_utt_mean_f0_b0!G1</f>
+        <v>df</v>
+      </c>
+      <c r="I2" s="36" t="str">
+        <f>[1]LME_utt_mean_f0_b0!H1</f>
+        <v>p.value</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" s="11" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="str">
+        <f>RIGHT([1]LME_utt_mean_f0_b0!A2,3)</f>
+        <v>MDC</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!B2</f>
+        <v>89.162999999999997</v>
+      </c>
+      <c r="D3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!C2</f>
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="E3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!D2</f>
+        <v>86.954999999999998</v>
+      </c>
+      <c r="F3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!E2</f>
+        <v>91.37</v>
+      </c>
+      <c r="G3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!F2</f>
+        <v>79.177999999999997</v>
+      </c>
+      <c r="H3" s="74">
+        <f>[1]LME_utt_mean_f0_b0!G2</f>
+        <v>11.56</v>
+      </c>
+      <c r="I3" s="75">
+        <f>[1]LME_utt_mean_f0_b0!H2</f>
+        <v>3.5730816871530797E-17</v>
+      </c>
+      <c r="J3" s="75">
+        <f>[1]LME_utt_mean_f0_b0!I2</f>
+        <v>7.1461633743061705E-17</v>
+      </c>
+      <c r="K3" s="76" t="str">
+        <f>[1]LME_utt_mean_f0_b0!J2</f>
+        <v>p&lt;0.001</v>
+      </c>
+      <c r="L3" s="77" t="str">
+        <f>Intercepts!A3</f>
+        <v>MDC</v>
+      </c>
+      <c r="M3" s="78">
+        <f>Intercepts!C3-Intercepts!E3</f>
+        <v>2.2079999999999984</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="71"/>
+      <c r="B4" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="28">
+        <f>[2]LME_utt_slope_b0!B2</f>
+        <v>-1.2090000000000001</v>
+      </c>
+      <c r="D4" s="28">
+        <f>[2]LME_utt_slope_b0!C2</f>
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="E4" s="28">
+        <f>[2]LME_utt_slope_b0!D2</f>
+        <v>-2.7469999999999999</v>
+      </c>
+      <c r="F4" s="28">
+        <f>[2]LME_utt_slope_b0!E2</f>
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="28">
+        <f>[2]LME_utt_slope_b0!F2</f>
+        <v>-1.54</v>
+      </c>
+      <c r="H4" s="28">
+        <f>[2]LME_utt_slope_b0!G2</f>
+        <v>9.9</v>
+      </c>
+      <c r="I4" s="31">
+        <f>[2]LME_utt_slope_b0!H2</f>
+        <v>0.15486654925417101</v>
+      </c>
+      <c r="J4" s="31">
+        <f>[2]LME_utt_slope_b0!I2</f>
+        <v>0.30973309850834202</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="30" t="str">
+        <f>Intercepts!A3</f>
+        <v>MDC</v>
+      </c>
+      <c r="M4" s="33">
+        <f>Intercepts!C4-Intercepts!E4</f>
+        <v>1.5379999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="72" t="str">
+        <f>RIGHT([1]LME_utt_mean_f0_b0!A3,3)</f>
+        <v>MWH</v>
+      </c>
+      <c r="B5" s="27" t="str">
+        <f t="shared" ref="B5:B6" si="0">B3</f>
+        <v>mean F0</v>
+      </c>
+      <c r="C5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!B3</f>
+        <v>89.634</v>
+      </c>
+      <c r="D5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!C3</f>
+        <v>0.98</v>
+      </c>
+      <c r="E5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!D3</f>
+        <v>87.712999999999994</v>
+      </c>
+      <c r="F5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!E3</f>
+        <v>91.555000000000007</v>
+      </c>
+      <c r="G5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!F3</f>
+        <v>91.44</v>
+      </c>
+      <c r="H5" s="28">
+        <f>[1]LME_utt_mean_f0_b0!G3</f>
+        <v>10.1</v>
+      </c>
+      <c r="I5" s="44">
+        <f>[1]LME_utt_mean_f0_b0!H3</f>
+        <v>4.5299163313851298E-16</v>
+      </c>
+      <c r="J5" s="44">
+        <f>[1]LME_utt_mean_f0_b0!I3</f>
+        <v>9.0598326627702695E-16</v>
+      </c>
+      <c r="K5" s="29" t="str">
+        <f>[1]LME_utt_mean_f0_b0!J3</f>
+        <v>p&lt;0.001</v>
+      </c>
+      <c r="L5" s="30" t="str">
+        <f>Intercepts!A5</f>
+        <v>MWH</v>
+      </c>
+      <c r="M5" s="33">
+        <f>Intercepts!C5-Intercepts!E5</f>
+        <v>1.9210000000000065</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="71"/>
+      <c r="B6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>Slope</v>
+      </c>
+      <c r="C6" s="28">
+        <f>[2]LME_utt_slope_b0!B3</f>
+        <v>-3.629</v>
+      </c>
+      <c r="D6" s="28">
+        <f>[2]LME_utt_slope_b0!C3</f>
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="E6" s="28">
+        <f>[2]LME_utt_slope_b0!D3</f>
+        <v>-5.7380000000000004</v>
+      </c>
+      <c r="F6" s="28">
+        <f>[2]LME_utt_slope_b0!E3</f>
+        <v>-1.52</v>
+      </c>
+      <c r="G6" s="28">
+        <f>[2]LME_utt_slope_b0!F3</f>
+        <v>-3.3730000000000002</v>
+      </c>
+      <c r="H6" s="28">
+        <f>[2]LME_utt_slope_b0!G3</f>
+        <v>7.79</v>
+      </c>
+      <c r="I6" s="31">
+        <f>[2]LME_utt_slope_b0!H3</f>
+        <v>1.01433931374136E-2</v>
+      </c>
+      <c r="J6" s="31">
+        <f>[2]LME_utt_slope_b0!I3</f>
+        <v>2.02867862748272E-2</v>
+      </c>
+      <c r="K6" s="32" t="str">
+        <f>[2]LME_utt_slope_b0!J3</f>
+        <v>p&lt;0.05</v>
+      </c>
+      <c r="L6" s="30" t="str">
+        <f>Intercepts!A5</f>
+        <v>MWH</v>
+      </c>
+      <c r="M6" s="33">
+        <f>Intercepts!C6-Intercepts!E6</f>
+        <v>2.1090000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="72" t="str">
+        <f>RIGHT([1]LME_utt_mean_f0_b0!A4,3)</f>
+        <v>MYN</v>
+      </c>
+      <c r="B7" s="27" t="str">
+        <f t="shared" ref="B7:B8" si="1">B3</f>
+        <v>mean F0</v>
+      </c>
+      <c r="C7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!B4</f>
+        <v>89.924000000000007</v>
+      </c>
+      <c r="D7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!C4</f>
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="E7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!D4</f>
+        <v>87.843999999999994</v>
+      </c>
+      <c r="F7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!E4</f>
+        <v>92.004000000000005</v>
+      </c>
+      <c r="G7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!F4</f>
+        <v>84.733000000000004</v>
+      </c>
+      <c r="H7" s="28">
+        <f>[1]LME_utt_mean_f0_b0!G4</f>
+        <v>11.24</v>
+      </c>
+      <c r="I7" s="44">
+        <f>[1]LME_utt_mean_f0_b0!H4</f>
+        <v>3.90950500814482E-17</v>
+      </c>
+      <c r="J7" s="44">
+        <f>[1]LME_utt_mean_f0_b0!I4</f>
+        <v>7.8190100162896401E-17</v>
+      </c>
+      <c r="K7" s="29" t="str">
+        <f>[1]LME_utt_mean_f0_b0!J4</f>
+        <v>p&lt;0.001</v>
+      </c>
+      <c r="L7" s="30" t="str">
+        <f>Intercepts!A7</f>
+        <v>MYN</v>
+      </c>
+      <c r="M7" s="33">
+        <f>Intercepts!C7-Intercepts!E7</f>
+        <v>2.0800000000000125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="71"/>
+      <c r="B8" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>Slope</v>
+      </c>
+      <c r="C8" s="28">
+        <f>[2]LME_utt_slope_b0!B4</f>
+        <v>2.4369999999999998</v>
+      </c>
+      <c r="D8" s="28">
+        <f>[2]LME_utt_slope_b0!C4</f>
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="E8" s="28">
+        <f>[2]LME_utt_slope_b0!D4</f>
+        <v>1.321</v>
+      </c>
+      <c r="F8" s="28">
+        <f>[2]LME_utt_slope_b0!E4</f>
+        <v>3.552</v>
+      </c>
+      <c r="G8" s="28">
+        <f>[2]LME_utt_slope_b0!F4</f>
+        <v>4.282</v>
+      </c>
+      <c r="H8" s="28">
+        <f>[2]LME_utt_slope_b0!G4</f>
+        <v>6.08</v>
+      </c>
+      <c r="I8" s="31">
+        <f>[2]LME_utt_slope_b0!H4</f>
+        <v>5.0431041747247499E-3</v>
+      </c>
+      <c r="J8" s="31">
+        <f>[2]LME_utt_slope_b0!I4</f>
+        <v>1.00862083494495E-2</v>
+      </c>
+      <c r="K8" s="32" t="str">
+        <f>[2]LME_utt_slope_b0!J4</f>
+        <v>p&lt;0.05</v>
+      </c>
+      <c r="L8" s="30" t="str">
+        <f>Intercepts!A7</f>
+        <v>MYN</v>
+      </c>
+      <c r="M8" s="33">
+        <f>Intercepts!C8-Intercepts!E8</f>
+        <v>1.1159999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="72" t="str">
+        <f>RIGHT([1]LME_utt_mean_f0_b0!A5,3)</f>
+        <v>MDQ</v>
+      </c>
+      <c r="B9" s="27" t="str">
+        <f t="shared" ref="B9:B10" si="2">B3</f>
+        <v>mean F0</v>
+      </c>
+      <c r="C9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!B5</f>
+        <v>91.45</v>
+      </c>
+      <c r="D9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!C5</f>
+        <v>1.31</v>
+      </c>
+      <c r="E9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!D5</f>
+        <v>88.882999999999996</v>
+      </c>
+      <c r="F9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!E5</f>
+        <v>94.016999999999996</v>
+      </c>
+      <c r="G9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!F5</f>
+        <v>69.820999999999998</v>
+      </c>
+      <c r="H9" s="28">
+        <f>[1]LME_utt_mean_f0_b0!G5</f>
+        <v>12.5</v>
+      </c>
+      <c r="I9" s="44">
+        <f>[1]LME_utt_mean_f0_b0!H5</f>
+        <v>1.40004586204442E-17</v>
+      </c>
+      <c r="J9" s="44">
+        <f>[1]LME_utt_mean_f0_b0!I5</f>
+        <v>2.8000917240888498E-17</v>
+      </c>
+      <c r="K9" s="29" t="str">
+        <f>[1]LME_utt_mean_f0_b0!J5</f>
+        <v>p&lt;0.001</v>
+      </c>
+      <c r="L9" s="30" t="str">
+        <f>Intercepts!A9</f>
+        <v>MDQ</v>
+      </c>
+      <c r="M9" s="33">
+        <f>Intercepts!C9-Intercepts!E9</f>
+        <v>2.5670000000000073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="69"/>
+      <c r="B10" s="39" t="str">
+        <f t="shared" si="2"/>
+        <v>Slope</v>
+      </c>
+      <c r="C10" s="40">
+        <f>[2]LME_utt_slope_b0!B5</f>
+        <v>5.3959999999999999</v>
+      </c>
+      <c r="D10" s="40">
+        <f>[2]LME_utt_slope_b0!C5</f>
+        <v>1.016</v>
+      </c>
+      <c r="E10" s="40">
+        <f>[2]LME_utt_slope_b0!D5</f>
+        <v>3.4049999999999998</v>
+      </c>
+      <c r="F10" s="40">
+        <f>[2]LME_utt_slope_b0!E5</f>
+        <v>7.3869999999999996</v>
+      </c>
+      <c r="G10" s="40">
+        <f>[2]LME_utt_slope_b0!F5</f>
+        <v>5.3129999999999997</v>
+      </c>
+      <c r="H10" s="40">
+        <f>[2]LME_utt_slope_b0!G5</f>
+        <v>11.1</v>
+      </c>
+      <c r="I10" s="45">
+        <f>[2]LME_utt_slope_b0!H5</f>
+        <v>2.3996259915199099E-4</v>
+      </c>
+      <c r="J10" s="45">
+        <f>[2]LME_utt_slope_b0!I5</f>
+        <v>4.7992519830398301E-4</v>
+      </c>
+      <c r="K10" s="41" t="str">
+        <f>[2]LME_utt_slope_b0!J5</f>
+        <v>p&lt;0.001</v>
+      </c>
+      <c r="L10" s="42" t="str">
+        <f>Intercepts!A9</f>
+        <v>MDQ</v>
+      </c>
+      <c r="M10" s="43">
+        <f>Intercepts!C10-Intercepts!E10</f>
+        <v>1.9910000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:13" s="13" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="14"/>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L24" s="8"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L25" s="8"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="145" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A5 A7 A9" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
-  <dimension ref="A1:K19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE082D90-AA35-40B6-AE85-4916BD6136E9}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.6640625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="46" customWidth="1"/>
-    <col min="3" max="7" width="6" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8" style="48" customWidth="1"/>
-    <col min="9" max="9" width="3" style="35" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" style="82" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="35"/>
-    <col min="14" max="14" width="10" style="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="35"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="32" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="J1" s="73" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="73"/>
-    </row>
-    <row r="2" spans="1:11" s="33" customFormat="1" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="68" t="str">
-        <f>[1]LME_utt_mean_f0_b0!G1</f>
-        <v>df</v>
-      </c>
-      <c r="H2" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="str">
-        <f>RIGHT([1]LME_utt_mean_f0_b0!A2,3)</f>
-        <v>MDC</v>
-      </c>
-      <c r="B3" s="56">
-        <f>[1]LME_utt_mean_f0_b0!B2</f>
-        <v>89.162999999999997</v>
-      </c>
-      <c r="C3" s="57">
-        <f>[1]LME_utt_mean_f0_b0!C2</f>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="D3" s="57">
-        <f>[1]LME_utt_mean_f0_b0!D2</f>
-        <v>86.954999999999998</v>
-      </c>
-      <c r="E3" s="57">
-        <f>[1]LME_utt_mean_f0_b0!E2</f>
-        <v>91.37</v>
-      </c>
-      <c r="F3" s="57">
-        <f>[1]LME_utt_mean_f0_b0!F2</f>
-        <v>79.177999999999997</v>
-      </c>
-      <c r="G3" s="57">
-        <f>[1]LME_utt_mean_f0_b0!G2</f>
-        <v>11.56</v>
-      </c>
-      <c r="H3" s="70">
-        <f>[1]LME_utt_mean_f0_b0!I2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="75" t="str">
-        <f>Intercepts!A3</f>
-        <v>MDC</v>
-      </c>
-      <c r="K3" s="76">
-        <f>Intercepts!B3-Intercepts!D3</f>
-        <v>2.2079999999999984</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="str">
-        <f>RIGHT([1]LME_utt_mean_f0_b0!A3,3)</f>
-        <v>MWH</v>
-      </c>
-      <c r="B4" s="58">
-        <f>[1]LME_utt_mean_f0_b0!B3</f>
-        <v>89.634</v>
-      </c>
-      <c r="C4" s="59">
-        <f>[1]LME_utt_mean_f0_b0!C3</f>
-        <v>0.98</v>
-      </c>
-      <c r="D4" s="59">
-        <f>[1]LME_utt_mean_f0_b0!D3</f>
-        <v>87.712999999999994</v>
-      </c>
-      <c r="E4" s="59">
-        <f>[1]LME_utt_mean_f0_b0!E3</f>
-        <v>91.555000000000007</v>
-      </c>
-      <c r="F4" s="59">
-        <f>[1]LME_utt_mean_f0_b0!F3</f>
-        <v>91.44</v>
-      </c>
-      <c r="G4" s="59">
-        <f>[1]LME_utt_mean_f0_b0!G3</f>
-        <v>10.1</v>
-      </c>
-      <c r="H4" s="71">
-        <f>[1]LME_utt_mean_f0_b0!I3</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="77" t="str">
-        <f>Intercepts!A4</f>
-        <v>MWH</v>
-      </c>
-      <c r="K4" s="78">
-        <f>Intercepts!B4-Intercepts!D4</f>
-        <v>1.9210000000000065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="str">
-        <f>RIGHT([1]LME_utt_mean_f0_b0!A4,3)</f>
-        <v>MYN</v>
-      </c>
-      <c r="B5" s="58">
-        <f>[1]LME_utt_mean_f0_b0!B4</f>
-        <v>89.924000000000007</v>
-      </c>
-      <c r="C5" s="59">
-        <f>[1]LME_utt_mean_f0_b0!C4</f>
-        <v>1.0609999999999999</v>
-      </c>
-      <c r="D5" s="59">
-        <f>[1]LME_utt_mean_f0_b0!D4</f>
-        <v>87.843999999999994</v>
-      </c>
-      <c r="E5" s="59">
-        <f>[1]LME_utt_mean_f0_b0!E4</f>
-        <v>92.004000000000005</v>
-      </c>
-      <c r="F5" s="59">
-        <f>[1]LME_utt_mean_f0_b0!F4</f>
-        <v>84.733000000000004</v>
-      </c>
-      <c r="G5" s="59">
-        <f>[1]LME_utt_mean_f0_b0!G4</f>
-        <v>11.24</v>
-      </c>
-      <c r="H5" s="71">
-        <f>[1]LME_utt_mean_f0_b0!I4</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="75" t="str">
-        <f>Intercepts!A5</f>
-        <v>MYN</v>
-      </c>
-      <c r="K5" s="79">
-        <f>Intercepts!B5-Intercepts!D5</f>
-        <v>2.0800000000000125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="33" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="str">
-        <f>RIGHT([1]LME_utt_mean_f0_b0!A5,3)</f>
-        <v>MDQ</v>
-      </c>
-      <c r="B6" s="60">
-        <f>[1]LME_utt_mean_f0_b0!B5</f>
-        <v>91.45</v>
-      </c>
-      <c r="C6" s="61">
-        <f>[1]LME_utt_mean_f0_b0!C5</f>
-        <v>1.31</v>
-      </c>
-      <c r="D6" s="61">
-        <f>[1]LME_utt_mean_f0_b0!D5</f>
-        <v>88.882999999999996</v>
-      </c>
-      <c r="E6" s="61">
-        <f>[1]LME_utt_mean_f0_b0!E5</f>
-        <v>94.016999999999996</v>
-      </c>
-      <c r="F6" s="61">
-        <f>[1]LME_utt_mean_f0_b0!F5</f>
-        <v>69.820999999999998</v>
-      </c>
-      <c r="G6" s="61">
-        <f>[1]LME_utt_mean_f0_b0!G5</f>
-        <v>12.5</v>
-      </c>
-      <c r="H6" s="72">
-        <f>[1]LME_utt_mean_f0_b0!I5</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="80" t="str">
-        <f>Intercepts!A6</f>
-        <v>MDQ</v>
-      </c>
-      <c r="K6" s="81">
-        <f>Intercepts!B6-Intercepts!D6</f>
-        <v>2.5670000000000073</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-    </row>
-    <row r="8" spans="1:11" s="37" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
-      <c r="J8" s="73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="73"/>
-    </row>
-    <row r="9" spans="1:11" s="33" customFormat="1" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="53" t="str">
-        <f>B2</f>
-        <v>est.   (β0)</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="69" t="str">
-        <f>F2</f>
-        <v>t value</v>
-      </c>
-      <c r="G9" s="69" t="str">
-        <f>G2</f>
-        <v>df</v>
-      </c>
-      <c r="H9" s="55" t="str">
-        <f>H2</f>
-        <v>p. (adjusted)</v>
-      </c>
-      <c r="J9" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="str">
-        <f t="shared" ref="A10:A13" si="0">A3</f>
-        <v>MDC</v>
-      </c>
-      <c r="B10" s="63">
-        <f>[4]LME_utt_slope_b0!B2</f>
-        <v>-1.2090000000000001</v>
-      </c>
-      <c r="C10" s="64">
-        <f>[4]LME_utt_slope_b0!C2</f>
-        <v>0.78500000000000003</v>
-      </c>
-      <c r="D10" s="64">
-        <f>[4]LME_utt_slope_b0!D2</f>
-        <v>-2.7469999999999999</v>
-      </c>
-      <c r="E10" s="64">
-        <f>[4]LME_utt_slope_b0!E2</f>
-        <v>0.33</v>
-      </c>
-      <c r="F10" s="64">
-        <f>[4]LME_utt_slope_b0!F2</f>
-        <v>-1.54</v>
-      </c>
-      <c r="G10" s="64">
-        <f>[4]LME_utt_slope_b0!G2</f>
-        <v>9.9</v>
-      </c>
-      <c r="H10" s="65">
-        <f>[4]LME_utt_slope_b0!I2</f>
-        <v>0.99990000000000001</v>
-      </c>
-      <c r="J10" s="75" t="str">
-        <f>Intercepts!A3</f>
-        <v>MDC</v>
-      </c>
-      <c r="K10" s="79">
-        <f>Intercepts!B10-Intercepts!D10</f>
-        <v>1.5379999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="str">
-        <f t="shared" si="0"/>
-        <v>MWH</v>
-      </c>
-      <c r="B11" s="58">
-        <f>[4]LME_utt_slope_b0!B3</f>
-        <v>-3.629</v>
-      </c>
-      <c r="C11" s="59">
-        <f>[4]LME_utt_slope_b0!C3</f>
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="D11" s="59">
-        <f>[4]LME_utt_slope_b0!D3</f>
-        <v>-5.7380000000000004</v>
-      </c>
-      <c r="E11" s="59">
-        <f>[4]LME_utt_slope_b0!E3</f>
-        <v>-1.52</v>
-      </c>
-      <c r="F11" s="59">
-        <f>[4]LME_utt_slope_b0!F3</f>
-        <v>-3.3730000000000002</v>
-      </c>
-      <c r="G11" s="59">
-        <f>[4]LME_utt_slope_b0!G3</f>
-        <v>7.79</v>
-      </c>
-      <c r="H11" s="66">
-        <f>[4]LME_utt_slope_b0!I3</f>
-        <v>0.1217</v>
-      </c>
-      <c r="J11" s="77" t="str">
-        <f>Intercepts!A4</f>
-        <v>MWH</v>
-      </c>
-      <c r="K11" s="78">
-        <f>Intercepts!B11-Intercepts!D11</f>
-        <v>2.1090000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>MYN</v>
-      </c>
-      <c r="B12" s="58">
-        <f>[4]LME_utt_slope_b0!B4</f>
-        <v>2.4369999999999998</v>
-      </c>
-      <c r="C12" s="59">
-        <f>[4]LME_utt_slope_b0!C4</f>
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="D12" s="59">
-        <f>[4]LME_utt_slope_b0!D4</f>
-        <v>1.321</v>
-      </c>
-      <c r="E12" s="59">
-        <f>[4]LME_utt_slope_b0!E4</f>
-        <v>3.552</v>
-      </c>
-      <c r="F12" s="59">
-        <f>[4]LME_utt_slope_b0!F4</f>
-        <v>4.282</v>
-      </c>
-      <c r="G12" s="59">
-        <f>[4]LME_utt_slope_b0!G4</f>
-        <v>6.08</v>
-      </c>
-      <c r="H12" s="66">
-        <f>[4]LME_utt_slope_b0!I4</f>
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="J12" s="75" t="str">
-        <f>Intercepts!A5</f>
-        <v>MYN</v>
-      </c>
-      <c r="K12" s="79">
-        <f>Intercepts!B12-Intercepts!D12</f>
-        <v>1.1159999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="33" customFormat="1" ht="12.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="str">
-        <f t="shared" si="0"/>
-        <v>MDQ</v>
-      </c>
-      <c r="B13" s="60">
-        <f>[4]LME_utt_slope_b0!B5</f>
-        <v>5.3959999999999999</v>
-      </c>
-      <c r="C13" s="61">
-        <f>[4]LME_utt_slope_b0!C5</f>
-        <v>1.016</v>
-      </c>
-      <c r="D13" s="61">
-        <f>[4]LME_utt_slope_b0!D5</f>
-        <v>3.4049999999999998</v>
-      </c>
-      <c r="E13" s="61">
-        <f>[4]LME_utt_slope_b0!E5</f>
-        <v>7.3869999999999996</v>
-      </c>
-      <c r="F13" s="61">
-        <f>[4]LME_utt_slope_b0!F5</f>
-        <v>5.3129999999999997</v>
-      </c>
-      <c r="G13" s="61">
-        <f>[4]LME_utt_slope_b0!G5</f>
-        <v>11.1</v>
-      </c>
-      <c r="H13" s="67">
-        <f>[4]LME_utt_slope_b0!I5</f>
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="J13" s="80" t="str">
-        <f>Intercepts!A6</f>
-        <v>MDQ</v>
-      </c>
-      <c r="K13" s="81">
-        <f>Intercepts!B13-Intercepts!D13</f>
-        <v>1.9910000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="52"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="52"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D17" s="52"/>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J8:K8"/>
-  </mergeCells>
-  <conditionalFormatting sqref="H3:H6">
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10:H13">
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE082D90-AA35-40B6-AE85-4916BD6136E9}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q13"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" zoomScaleSheetLayoutView="190" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="6.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="23" customWidth="1"/>
-    <col min="11" max="16" width="6.33203125" style="20" customWidth="1"/>
-    <col min="17" max="17" width="9.44140625" style="23" customWidth="1"/>
-    <col min="18" max="19" width="6.33203125" style="20" customWidth="1"/>
-    <col min="20" max="16384" width="13.88671875" style="20"/>
+    <col min="1" max="1" width="18.5546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="17" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="8.109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" style="17" customWidth="1"/>
+    <col min="7" max="8" width="8.33203125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="17" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="16" customWidth="1"/>
+    <col min="12" max="17" width="6.33203125" style="17" customWidth="1"/>
+    <col min="18" max="18" width="9.44140625" style="16" customWidth="1"/>
+    <col min="19" max="20" width="6.33203125" style="17" customWidth="1"/>
+    <col min="21" max="16384" width="13.88671875" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:18" s="79" customFormat="1" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="83" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="83" t="str">
+        <f>[3]LME_utt_mean_f0_b1!G1</f>
+        <v>t.value</v>
+      </c>
+      <c r="H1" s="83" t="str">
+        <f>[3]LME_utt_mean_f0_b1!H1</f>
+        <v>df</v>
+      </c>
+      <c r="I1" s="83" t="str">
+        <f>[3]LME_utt_mean_f0_b1!I1</f>
+        <v>p.value</v>
+      </c>
+      <c r="J1" s="83" t="str">
+        <f>[3]LME_utt_mean_f0_b1!J1</f>
+        <v>p.val. adj. (bf=7)</v>
+      </c>
+      <c r="K1" s="84" t="str">
+        <f>[3]LME_utt_mean_f0_b1!K1</f>
+        <v>signif. (adj.)</v>
+      </c>
+      <c r="R1" s="80"/>
+    </row>
+    <row r="2" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!C2</f>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="D2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!D2</f>
+        <v>0.311</v>
+      </c>
+      <c r="E2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!E2</f>
+        <v>-0.13700000000000001</v>
+      </c>
+      <c r="F2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!F2</f>
+        <v>1.08</v>
+      </c>
+      <c r="G2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!G2</f>
+        <v>1.518</v>
+      </c>
+      <c r="H2" s="56">
+        <f>[3]LME_utt_mean_f0_b1!H2</f>
+        <v>10.07</v>
+      </c>
+      <c r="I2" s="57">
+        <f>[3]LME_utt_mean_f0_b1!I2</f>
+        <v>0.15980574802695599</v>
+      </c>
+      <c r="J2" s="57">
+        <f>[3]LME_utt_mean_f0_b1!J2</f>
+        <v>0.3196</v>
+      </c>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66"/>
+      <c r="B3" s="85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="86">
+        <f>[4]LME_utt_slope_b1!C2</f>
+        <v>-2.42</v>
+      </c>
+      <c r="D3" s="86">
+        <f>[4]LME_utt_slope_b1!D2</f>
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="E3" s="86">
+        <f>[4]LME_utt_slope_b1!E2</f>
+        <v>-4.8170000000000002</v>
+      </c>
+      <c r="F3" s="86">
+        <f>[4]LME_utt_slope_b1!F2</f>
+        <v>-2.4E-2</v>
+      </c>
+      <c r="G3" s="86">
+        <f>[4]LME_utt_slope_b1!G2</f>
+        <v>-1.9790000000000001</v>
+      </c>
+      <c r="H3" s="86">
+        <f>[4]LME_utt_slope_b1!H2</f>
         <v>10</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="I3" s="87">
+        <f>[4]LME_utt_slope_b1!I2</f>
+        <v>7.5942388688881396E-2</v>
+      </c>
+      <c r="J3" s="87">
+        <f>[4]LME_utt_slope_b1!J2</f>
+        <v>0.15188477737776199</v>
+      </c>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="55" t="str">
+        <f>B2</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="C4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!C3</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!D3</f>
+        <v>0.249</v>
+      </c>
+      <c r="E4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!E3</f>
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="F4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!F3</f>
+        <v>1.2490000000000001</v>
+      </c>
+      <c r="G4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!G3</f>
+        <v>3.0590000000000002</v>
+      </c>
+      <c r="H4" s="56">
+        <f>[3]LME_utt_mean_f0_b1!H3</f>
+        <v>10.07</v>
+      </c>
+      <c r="I4" s="57">
+        <f>[3]LME_utt_mean_f0_b1!I3</f>
+        <v>1.19832940301635E-2</v>
+      </c>
+      <c r="J4" s="57">
+        <f>[3]LME_utt_mean_f0_b1!J3</f>
+        <v>2.4E-2</v>
+      </c>
+      <c r="K4" s="58" t="str">
+        <f>[3]LME_utt_mean_f0_b1!K3</f>
+        <v>p&lt;0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66"/>
+      <c r="B5" s="48" t="str">
+        <f>B3</f>
+        <v>Mean Slope</v>
+      </c>
+      <c r="C5" s="49">
+        <f>[4]LME_utt_slope_b1!C3</f>
+        <v>3.6459999999999999</v>
+      </c>
+      <c r="D5" s="49">
+        <f>[4]LME_utt_slope_b1!D3</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E5" s="49">
+        <f>[4]LME_utt_slope_b1!E3</f>
+        <v>1.907</v>
+      </c>
+      <c r="F5" s="49">
+        <f>[4]LME_utt_slope_b1!F3</f>
+        <v>5.3849999999999998</v>
+      </c>
+      <c r="G5" s="49">
+        <f>[4]LME_utt_slope_b1!G3</f>
+        <v>4.109</v>
+      </c>
+      <c r="H5" s="49">
+        <f>[4]LME_utt_slope_b1!H3</f>
+        <v>9.99</v>
+      </c>
+      <c r="I5" s="50">
+        <f>[4]LME_utt_slope_b1!I3</f>
+        <v>2.1194854883131399E-3</v>
+      </c>
+      <c r="J5" s="50">
+        <f>[4]LME_utt_slope_b1!J3</f>
+        <v>4.2389709766262901E-3</v>
+      </c>
+      <c r="K5" s="52" t="str">
+        <f>[4]LME_utt_slope_b1!K3</f>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="55" t="str">
+        <f t="shared" ref="B6:B7" si="0">B2</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="C6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!C4</f>
+        <v>2.2869999999999999</v>
+      </c>
+      <c r="D6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!D4</f>
+        <v>0.439</v>
+      </c>
+      <c r="E6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!E4</f>
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="F6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!F4</f>
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="G6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!G4</f>
+        <v>5.2149999999999999</v>
+      </c>
+      <c r="H6" s="56">
+        <f>[3]LME_utt_mean_f0_b1!H4</f>
+        <v>10.06</v>
+      </c>
+      <c r="I6" s="59">
+        <f>[3]LME_utt_mean_f0_b1!I4</f>
+        <v>3.8467577530232501E-4</v>
+      </c>
+      <c r="J6" s="57">
+        <f>[3]LME_utt_mean_f0_b1!J4</f>
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="K6" s="58" t="str">
+        <f>[3]LME_utt_mean_f0_b1!K4</f>
+        <v>p&lt;0.001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="48" t="str">
+        <f t="shared" si="0"/>
+        <v>Mean Slope</v>
+      </c>
+      <c r="C7" s="49">
+        <f>[4]LME_utt_slope_b1!C4</f>
+        <v>6.6050000000000004</v>
+      </c>
+      <c r="D7" s="49">
+        <f>[4]LME_utt_slope_b1!D4</f>
+        <v>1.177</v>
+      </c>
+      <c r="E7" s="49">
+        <f>[4]LME_utt_slope_b1!E4</f>
+        <v>4.298</v>
+      </c>
+      <c r="F7" s="49">
+        <f>[4]LME_utt_slope_b1!F4</f>
+        <v>8.9120000000000008</v>
+      </c>
+      <c r="G7" s="49">
+        <f>[4]LME_utt_slope_b1!G4</f>
+        <v>5.6109999999999998</v>
+      </c>
+      <c r="H7" s="49">
+        <f>[4]LME_utt_slope_b1!H4</f>
+        <v>10.09</v>
+      </c>
+      <c r="I7" s="53">
+        <f>[4]LME_utt_slope_b1!I4</f>
+        <v>2.17158268650174E-4</v>
+      </c>
+      <c r="J7" s="54">
+        <f>[4]LME_utt_slope_b1!J4</f>
+        <v>4.3431653730034801E-4</v>
+      </c>
+      <c r="K7" s="52" t="str">
+        <f>[4]LME_utt_slope_b1!K4</f>
+        <v>p&lt;0.001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="55" t="str">
+        <f t="shared" ref="B8:B9" si="1">B2</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="C8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!C5</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!D5</f>
+        <v>0.253</v>
+      </c>
+      <c r="E8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!E5</f>
+        <v>-0.20699999999999999</v>
+      </c>
+      <c r="F8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!F5</f>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="G8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!G5</f>
+        <v>1.1439999999999999</v>
+      </c>
+      <c r="H8" s="56">
+        <f>[3]LME_utt_mean_f0_b1!H5</f>
+        <v>9.98</v>
+      </c>
+      <c r="I8" s="57">
+        <f>[3]LME_utt_mean_f0_b1!I5</f>
+        <v>0.27950992185204199</v>
+      </c>
+      <c r="J8" s="57">
+        <f>[3]LME_utt_mean_f0_b1!J5</f>
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="48" t="str">
+        <f t="shared" si="1"/>
+        <v>Mean Slope</v>
+      </c>
+      <c r="C9" s="49">
+        <f>[4]LME_utt_slope_b1!C5</f>
+        <v>6.0659999999999998</v>
+      </c>
+      <c r="D9" s="49">
+        <f>[4]LME_utt_slope_b1!D5</f>
+        <v>1.4650000000000001</v>
+      </c>
+      <c r="E9" s="49">
+        <f>[4]LME_utt_slope_b1!E5</f>
+        <v>3.1949999999999998</v>
+      </c>
+      <c r="F9" s="49">
+        <f>[4]LME_utt_slope_b1!F5</f>
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="G9" s="49">
+        <f>[4]LME_utt_slope_b1!G5</f>
+        <v>4.141</v>
+      </c>
+      <c r="H9" s="49">
+        <f>[4]LME_utt_slope_b1!H5</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="50">
+        <f>[4]LME_utt_slope_b1!I5</f>
+        <v>2.00943767868017E-3</v>
+      </c>
+      <c r="J9" s="50">
+        <f>[4]LME_utt_slope_b1!J5</f>
+        <v>4.0188753573603504E-3</v>
+      </c>
+      <c r="K9" s="52" t="str">
+        <f>[4]LME_utt_slope_b1!K5</f>
+        <v>p&lt;0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>1</v>
+      <c r="B10" s="60" t="str">
+        <f t="shared" ref="B10:B11" si="2">B2</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="C10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!C6</f>
+        <v>1.8160000000000001</v>
+      </c>
+      <c r="D10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!D6</f>
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="E10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!E6</f>
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="F10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!F6</f>
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="G10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!G6</f>
+        <v>2.875</v>
+      </c>
+      <c r="H10" s="64">
+        <f>[3]LME_utt_mean_f0_b1!H6</f>
+        <v>10.039999999999999</v>
+      </c>
+      <c r="I10" s="62">
+        <f>[3]LME_utt_mean_f0_b1!I6</f>
+        <v>1.6450500219151599E-2</v>
+      </c>
+      <c r="J10" s="62">
+        <f>[3]LME_utt_mean_f0_b1!J6</f>
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="K10" s="63" t="str">
+        <f>[3]LME_utt_mean_f0_b1!K6</f>
+        <v>p&lt;0.05</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C2" s="9">
-        <f>[2]LME_utt_mean_f0_b1!$C$2</f>
-        <v>0.47099999999999997</v>
-      </c>
-      <c r="D2" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$D$2</f>
-        <v>0.311</v>
-      </c>
-      <c r="E2" s="11">
-        <f>[2]LME_utt_mean_f0_b1!E2</f>
-        <v>-0.13700000000000001</v>
-      </c>
-      <c r="F2" s="11">
-        <f>[2]LME_utt_mean_f0_b1!F2</f>
-        <v>1.08</v>
-      </c>
-      <c r="G2" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$G$2</f>
-        <v>1.518</v>
-      </c>
-      <c r="H2" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$H$2</f>
-        <v>10.07</v>
-      </c>
-      <c r="I2" s="12">
-        <f>[2]LME_utt_mean_f0_b1!$I$2</f>
-        <v>0.1598</v>
+    <row r="11" spans="1:18" ht="19.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="68"/>
+      <c r="B11" s="48" t="str">
+        <f t="shared" si="2"/>
+        <v>Mean Slope</v>
+      </c>
+      <c r="C11" s="49">
+        <f>[4]LME_utt_slope_b1!C6</f>
+        <v>9.0250000000000004</v>
+      </c>
+      <c r="D11" s="49">
+        <f>[4]LME_utt_slope_b1!D6</f>
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="E11" s="49">
+        <f>[4]LME_utt_slope_b1!E6</f>
+        <v>5.6870000000000003</v>
+      </c>
+      <c r="F11" s="49">
+        <f>[4]LME_utt_slope_b1!F6</f>
+        <v>12.363</v>
+      </c>
+      <c r="G11" s="49">
+        <f>[4]LME_utt_slope_b1!G6</f>
+        <v>5.3</v>
+      </c>
+      <c r="H11" s="49">
+        <f>[4]LME_utt_slope_b1!H6</f>
+        <v>10.029999999999999</v>
+      </c>
+      <c r="I11" s="53">
+        <f>[4]LME_utt_slope_b1!I6</f>
+        <v>3.4445530147905398E-4</v>
+      </c>
+      <c r="J11" s="50">
+        <f>[4]LME_utt_slope_b1!J6</f>
+        <v>6.8891060295810796E-4</v>
+      </c>
+      <c r="K11" s="51" t="str">
+        <f>[4]LME_utt_slope_b1!K6</f>
+        <v>p&lt;0.001</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="22" t="str">
-        <f>Intercepts!A8</f>
+    <row r="12" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="55" t="str">
+        <f t="shared" ref="B12:B13" si="3">B2</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="C12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!C7</f>
+        <v>1.526</v>
+      </c>
+      <c r="D12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!D7</f>
+        <v>0.59</v>
+      </c>
+      <c r="E12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!E7</f>
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="F12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!F7</f>
+        <v>2.6829999999999998</v>
+      </c>
+      <c r="G12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!G7</f>
+        <v>2.5840000000000001</v>
+      </c>
+      <c r="H12" s="56">
+        <f>[3]LME_utt_mean_f0_b1!H7</f>
+        <v>10.06</v>
+      </c>
+      <c r="I12" s="57">
+        <f>[3]LME_utt_mean_f0_b1!I7</f>
+        <v>2.7108965813267601E-2</v>
+      </c>
+      <c r="J12" s="57">
+        <f>[3]LME_utt_mean_f0_b1!J7</f>
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="1:18" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="48" t="str">
+        <f t="shared" si="3"/>
         <v>Mean Slope</v>
       </c>
-      <c r="C3" s="13">
-        <f>[5]LME_utt_slope_b1!$C$2</f>
-        <v>-2.42</v>
-      </c>
-      <c r="D3" s="14">
-        <f>[5]LME_utt_slope_b1!$D$2</f>
-        <v>1.2230000000000001</v>
-      </c>
-      <c r="E3" s="15">
-        <f>[5]LME_utt_slope_b1!E2</f>
-        <v>-4.8170000000000002</v>
-      </c>
-      <c r="F3" s="15">
-        <f>[5]LME_utt_slope_b1!F2</f>
-        <v>-2.4E-2</v>
-      </c>
-      <c r="G3" s="14">
-        <f>[5]LME_utt_slope_b1!$G$2</f>
-        <v>-1.9790000000000001</v>
-      </c>
-      <c r="H3" s="14">
-        <f>[5]LME_utt_slope_b1!$H$2</f>
+      <c r="C13" s="49">
+        <f>[4]LME_utt_slope_b1!C7</f>
+        <v>2.9590000000000001</v>
+      </c>
+      <c r="D13" s="49">
+        <f>[4]LME_utt_slope_b1!D7</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E13" s="49">
+        <f>[4]LME_utt_slope_b1!E7</f>
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="F13" s="49">
+        <f>[4]LME_utt_slope_b1!F7</f>
+        <v>4.4589999999999996</v>
+      </c>
+      <c r="G13" s="49">
+        <f>[4]LME_utt_slope_b1!G7</f>
+        <v>3.867</v>
+      </c>
+      <c r="H13" s="49">
+        <f>[4]LME_utt_slope_b1!H7</f>
         <v>10</v>
       </c>
-      <c r="I3" s="16">
-        <f>[5]LME_utt_slope_b1!$I$2</f>
-        <v>7.5899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C4" s="9">
-        <f>[2]LME_utt_mean_f0_b1!$C$3</f>
-        <v>0.76100000000000001</v>
-      </c>
-      <c r="D4" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$D$3</f>
-        <v>0.249</v>
-      </c>
-      <c r="E4" s="11">
-        <f>[2]LME_utt_mean_f0_b1!E3</f>
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="F4" s="11">
-        <f>[2]LME_utt_mean_f0_b1!F3</f>
-        <v>1.2490000000000001</v>
-      </c>
-      <c r="G4" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$G$3</f>
-        <v>3.0590000000000002</v>
-      </c>
-      <c r="H4" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$H$3</f>
-        <v>10.07</v>
-      </c>
-      <c r="I4" s="12">
-        <f>[2]LME_utt_mean_f0_b1!$I$3</f>
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="22" t="str">
-        <f>Intercepts!A8</f>
-        <v>Mean Slope</v>
-      </c>
-      <c r="C5" s="13">
-        <f>[5]LME_utt_slope_b1!$C$3</f>
-        <v>3.6459999999999999</v>
-      </c>
-      <c r="D5" s="14">
-        <f>[5]LME_utt_slope_b1!$D$3</f>
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E5" s="15">
-        <f>[5]LME_utt_slope_b1!E3</f>
-        <v>1.907</v>
-      </c>
-      <c r="F5" s="15">
-        <f>[5]LME_utt_slope_b1!F3</f>
-        <v>5.3849999999999998</v>
-      </c>
-      <c r="G5" s="14">
-        <f>[5]LME_utt_slope_b1!$G$3</f>
-        <v>4.109</v>
-      </c>
-      <c r="H5" s="14">
-        <f>[5]LME_utt_slope_b1!$H$3</f>
-        <v>9.99</v>
-      </c>
-      <c r="I5" s="16">
-        <f>[5]LME_utt_slope_b1!$I$3</f>
-        <v>2.0999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C6" s="9">
-        <f>[2]LME_utt_mean_f0_b1!$C$4</f>
-        <v>2.2869999999999999</v>
-      </c>
-      <c r="D6" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$D$4</f>
-        <v>0.439</v>
-      </c>
-      <c r="E6" s="11">
-        <f>[2]LME_utt_mean_f0_b1!E4</f>
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="F6" s="11">
-        <f>[2]LME_utt_mean_f0_b1!F4</f>
-        <v>3.1469999999999998</v>
-      </c>
-      <c r="G6" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$G$4</f>
-        <v>5.2149999999999999</v>
-      </c>
-      <c r="H6" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$H$4</f>
-        <v>10.06</v>
-      </c>
-      <c r="I6" s="29">
-        <f>[2]LME_utt_mean_f0_b1!$I$4</f>
-        <v>3.8467999999999998E-4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="22" t="str">
-        <f>Intercepts!A8</f>
-        <v>Mean Slope</v>
-      </c>
-      <c r="C7" s="13">
-        <f>[5]LME_utt_slope_b1!$C$4</f>
-        <v>6.6050000000000004</v>
-      </c>
-      <c r="D7" s="14">
-        <f>[5]LME_utt_slope_b1!$D$4</f>
-        <v>1.177</v>
-      </c>
-      <c r="E7" s="15">
-        <f>[5]LME_utt_slope_b1!E4</f>
-        <v>4.298</v>
-      </c>
-      <c r="F7" s="15">
-        <f>[5]LME_utt_slope_b1!F4</f>
-        <v>8.9120000000000008</v>
-      </c>
-      <c r="G7" s="14">
-        <f>[5]LME_utt_slope_b1!$G$4</f>
-        <v>5.6109999999999998</v>
-      </c>
-      <c r="H7" s="14">
-        <f>[5]LME_utt_slope_b1!$H$4</f>
-        <v>10.09</v>
-      </c>
-      <c r="I7" s="28">
-        <f>[5]LME_utt_slope_b1!$I$4</f>
-        <v>2.1715999999999999E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C8" s="9">
-        <f>[2]LME_utt_mean_f0_b1!C5</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D8" s="10">
-        <f>[2]LME_utt_mean_f0_b1!D5</f>
-        <v>0.253</v>
-      </c>
-      <c r="E8" s="11">
-        <f>[2]LME_utt_mean_f0_b1!E5</f>
-        <v>-0.20699999999999999</v>
-      </c>
-      <c r="F8" s="11">
-        <f>[2]LME_utt_mean_f0_b1!F5</f>
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="G8" s="10">
-        <f>[2]LME_utt_mean_f0_b1!G5</f>
-        <v>1.1439999999999999</v>
-      </c>
-      <c r="H8" s="10">
-        <f>[2]LME_utt_mean_f0_b1!H5</f>
-        <v>9.98</v>
-      </c>
-      <c r="I8" s="29">
-        <f>[2]LME_utt_mean_f0_b1!$I$4</f>
-        <v>3.8467999999999998E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="22" t="str">
-        <f>Intercepts!A8</f>
-        <v>Mean Slope</v>
-      </c>
-      <c r="C9" s="13">
-        <f>[5]LME_utt_slope_b1!$C$5</f>
-        <v>6.0659999999999998</v>
-      </c>
-      <c r="D9" s="14">
-        <f>[5]LME_utt_slope_b1!$D$5</f>
-        <v>1.4650000000000001</v>
-      </c>
-      <c r="E9" s="15">
-        <f>[5]LME_utt_slope_b1!E5</f>
-        <v>3.1949999999999998</v>
-      </c>
-      <c r="F9" s="15">
-        <f>[5]LME_utt_slope_b1!F5</f>
-        <v>8.9369999999999994</v>
-      </c>
-      <c r="G9" s="14">
-        <f>[5]LME_utt_slope_b1!$G$5</f>
-        <v>4.141</v>
-      </c>
-      <c r="H9" s="14">
-        <f>[5]LME_utt_slope_b1!$H$5</f>
-        <v>10</v>
-      </c>
-      <c r="I9" s="16">
-        <f>[5]LME_utt_slope_b1!$I$5</f>
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C10" s="9">
-        <f>[2]LME_utt_mean_f0_b1!$C$6</f>
-        <v>1.8160000000000001</v>
-      </c>
-      <c r="D10" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$D$6</f>
-        <v>0.63100000000000001</v>
-      </c>
-      <c r="E10" s="11">
-        <f>[2]LME_utt_mean_f0_b1!E6</f>
-        <v>0.57799999999999996</v>
-      </c>
-      <c r="F10" s="11">
-        <f>[2]LME_utt_mean_f0_b1!F6</f>
-        <v>3.0529999999999999</v>
-      </c>
-      <c r="G10" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$G$6</f>
-        <v>2.875</v>
-      </c>
-      <c r="H10" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$H$6</f>
-        <v>10.039999999999999</v>
-      </c>
-      <c r="I10" s="12">
-        <f>[2]LME_utt_mean_f0_b1!$I$6</f>
-        <v>1.6500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="22" t="str">
-        <f>Intercepts!A8</f>
-        <v>Mean Slope</v>
-      </c>
-      <c r="C11" s="13">
-        <f>[5]LME_utt_slope_b1!$C$6</f>
-        <v>9.0250000000000004</v>
-      </c>
-      <c r="D11" s="14">
-        <f>[5]LME_utt_slope_b1!$D$6</f>
-        <v>1.7030000000000001</v>
-      </c>
-      <c r="E11" s="15">
-        <f>[5]LME_utt_slope_b1!E6</f>
-        <v>5.6870000000000003</v>
-      </c>
-      <c r="F11" s="15">
-        <f>[5]LME_utt_slope_b1!F6</f>
-        <v>12.363</v>
-      </c>
-      <c r="G11" s="14">
-        <f>[5]LME_utt_slope_b1!$G$6</f>
-        <v>5.3</v>
-      </c>
-      <c r="H11" s="14">
-        <f>[5]LME_utt_slope_b1!$H$6</f>
-        <v>10.029999999999999</v>
-      </c>
-      <c r="I11" s="28">
-        <f>[5]LME_utt_slope_b1!$I$6</f>
-        <v>3.4445999999999999E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="21" t="str">
-        <f>Intercepts!A1</f>
-        <v>mean F0</v>
-      </c>
-      <c r="C12" s="9">
-        <f>[2]LME_utt_mean_f0_b1!$C$7</f>
-        <v>1.526</v>
-      </c>
-      <c r="D12" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$D$7</f>
-        <v>0.59</v>
-      </c>
-      <c r="E12" s="11">
-        <f>[2]LME_utt_mean_f0_b1!$E$7</f>
-        <v>0.36899999999999999</v>
-      </c>
-      <c r="F12" s="11">
-        <f>[2]LME_utt_mean_f0_b1!$F$7</f>
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="G12" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$G$7</f>
-        <v>2.5840000000000001</v>
-      </c>
-      <c r="H12" s="10">
-        <f>[2]LME_utt_mean_f0_b1!$H$7</f>
-        <v>10.06</v>
-      </c>
-      <c r="I12" s="12">
-        <f>[2]LME_utt_mean_f0_b1!$I$7</f>
-        <v>2.7099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="22" t="str">
-        <f>Intercepts!A8</f>
-        <v>Mean Slope</v>
-      </c>
-      <c r="C13" s="13">
-        <f>[5]LME_utt_slope_b1!$C$7</f>
-        <v>2.9590000000000001</v>
-      </c>
-      <c r="D13" s="14">
-        <f>[5]LME_utt_slope_b1!$D$7</f>
-        <v>0.76500000000000001</v>
-      </c>
-      <c r="E13" s="15">
-        <f>[5]LME_utt_slope_b1!$E$7</f>
-        <v>1.4590000000000001</v>
-      </c>
-      <c r="F13" s="15">
-        <f>[5]LME_utt_slope_b1!$F$7</f>
-        <v>4.4589999999999996</v>
-      </c>
-      <c r="G13" s="14">
-        <f>[5]LME_utt_slope_b1!$G$7</f>
-        <v>3.867</v>
-      </c>
-      <c r="H13" s="14">
-        <f>[5]LME_utt_slope_b1!$H$7</f>
-        <v>10</v>
-      </c>
-      <c r="I13" s="16">
-        <f>[5]LME_utt_slope_b1!$I$7</f>
-        <v>3.0999999999999999E-3</v>
+      <c r="I13" s="50">
+        <f>[4]LME_utt_slope_b1!I7</f>
+        <v>3.12728623193868E-3</v>
+      </c>
+      <c r="J13" s="50">
+        <f>[4]LME_utt_slope_b1!J7</f>
+        <v>6.25457246387736E-3</v>
+      </c>
+      <c r="K13" s="51" t="str">
+        <f>[4]LME_utt_slope_b1!K7</f>
+        <v>p&lt;0.01</v>
       </c>
     </row>
   </sheetData>
@@ -5208,122 +5368,59 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
-  <conditionalFormatting sqref="I1:I3">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4:I5">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I7">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I9">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I10)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
-      <formula>0.001</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0.05</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="&lt;0.001">
-      <formula>NOT(ISERROR(SEARCH("&lt;0.001",I12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="145" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{587B0460-A07E-4D4E-B17B-36A19CDBC6AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="10.33203125" style="26"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
+      <c r="A1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="str">
+    <row r="2" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="str">
         <f>'Pairwise Comparisons'!B2</f>
-        <v>mean F0</v>
-      </c>
-      <c r="B2" s="9">
-        <f>[3]LME_utt_mean_f0_r2!$B$3</f>
+        <v>Mean F0</v>
+      </c>
+      <c r="B2" s="2">
+        <f>[5]LME_utt_mean_f0_r2!$B$3</f>
         <v>0.53025478832227002</v>
       </c>
-      <c r="C2" s="26">
-        <f>[3]LME_utt_mean_f0_r2!$B$2</f>
+      <c r="C2" s="22">
+        <f>[5]LME_utt_mean_f0_r2!$B$2</f>
         <v>0.942615107372338</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="str">
+    <row r="3" spans="1:3" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="str">
         <f>'Pairwise Comparisons'!B3</f>
         <v>Mean Slope</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="3">
         <f>[6]LME_utt_slope_r2!$B$3</f>
         <v>0.51959290997083996</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <f>[6]LME_utt_slope_r2!$B$2</f>
         <v>0.85336305453770001</v>
       </c>
@@ -5332,4 +5429,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
+  <dimension ref="J38:M38"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="38" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>